--- a/data/MBTW1S1.xlsx
+++ b/data/MBTW1S1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65B1DB14-04D5-E141-9AD1-81D21FFD9205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EC0CE0F-6F5E-F04D-A3FE-39C3A0F7BCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16560" yWindow="2160" windowWidth="28040" windowHeight="16300" xr2:uid="{9F1E5659-C7B9-DE43-9D7B-BBFC1B85C6D5}"/>
+    <workbookView xWindow="8500" yWindow="2160" windowWidth="28040" windowHeight="16300" xr2:uid="{9F1E5659-C7B9-DE43-9D7B-BBFC1B85C6D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,13 +44,13 @@
     <t>(hr)</t>
   </si>
   <si>
-    <t>Fructose (mM)</t>
+    <t>Fructose</t>
   </si>
   <si>
-    <t>Biomass (g/L)</t>
+    <t>Biomass</t>
   </si>
   <si>
-    <t>Acetate (mM)</t>
+    <t>Acetate</t>
   </si>
 </sst>
 </file>
@@ -557,7 +557,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
